--- a/biology/Botanique/Maireana/Maireana.xlsx
+++ b/biology/Botanique/Maireana/Maireana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Maireana fait partie de la famille des Chenopodiaceae selon la classification classique de Cronquist (1981)[1] ou des Amaranthaceae selon la classification phylogénétique. Il comprend 58 espèces, toutes endémiques en Australie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Maireana fait partie de la famille des Chenopodiaceae selon la classification classique de Cronquist (1981) ou des Amaranthaceae selon la classification phylogénétique. Il comprend 58 espèces, toutes endémiques en Australie.
 Ce sont des herbes ou des buissons ; ce sont des plantes dioïques ou hermaphrodites.
 </t>
         </is>
